--- a/Data/not_filled_data.xlsx
+++ b/Data/not_filled_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e289b4740dc4e43/Рабочий стол/Projects/gms/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_68B3A0E0B455502DC0FA18353CB0DA14A49F51DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A46988E-4087-4B65-81DA-D18A3DAEA0D0}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_67EB2B3875D7541E466A9F285C17CC253D1970EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDC5C6CF-4264-43C9-8576-4A97089FFB2D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="2910" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Буровая_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>Скорость (м/с)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>Время (с)</t>
   </si>
   <si>
-    <t>X-координата</t>
+    <t>X</t>
   </si>
   <si>
-    <t>Y-координата</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -403,21 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,127 +431,93 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1587.863857964169</v>
+        <v>2199.3817012180962</v>
       </c>
       <c r="B2">
-        <v>76.615669279019528</v>
+        <v>68.248841560958397</v>
       </c>
       <c r="C2">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1833.590370679422</v>
+        <v>2436.4236518691432</v>
       </c>
       <c r="B3">
-        <v>81.620311730747076</v>
+        <v>63.3080397350205</v>
       </c>
       <c r="C3">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2190.820045518105</v>
+        <v>2274.916728594018</v>
       </c>
       <c r="B4">
-        <v>26.267222080046661</v>
+        <v>79.68734934958627</v>
       </c>
       <c r="C4">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1100.1652046869101</v>
+      </c>
+      <c r="B5">
+        <v>35.726659386657083</v>
+      </c>
       <c r="C5">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>806.22348242085002</v>
+      </c>
+      <c r="B6">
+        <v>34.814262498137097</v>
+      </c>
       <c r="C6">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1816.472940227623</v>
-      </c>
-      <c r="B7">
-        <v>53.715426596245543</v>
-      </c>
-      <c r="C7">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D7">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2157.4196687775461</v>
-      </c>
-      <c r="B8">
-        <v>71.771200385577743</v>
-      </c>
-      <c r="C8">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D8">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2102.0715079949609</v>
-      </c>
-      <c r="B9">
-        <v>62.269632756418687</v>
-      </c>
-      <c r="C9">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D9">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D10">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1722.158436942666</v>
-      </c>
-      <c r="B11">
-        <v>95.993584998210494</v>
-      </c>
-      <c r="C11">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D11">
-        <v>14.44645891549755</v>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -560,21 +527,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,121 +552,87 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2378.0457230346542</v>
+      </c>
+      <c r="B2">
+        <v>96.70529228798172</v>
+      </c>
       <c r="C2">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2318.7942392709269</v>
+        <v>2252.9933903071701</v>
       </c>
       <c r="B4">
-        <v>56.052529522935252</v>
+        <v>75.535546247701902</v>
       </c>
       <c r="C4">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1768.7990629026269</v>
+        <v>927.37156327405</v>
       </c>
       <c r="B5">
-        <v>19.870736186422501</v>
+        <v>31.649250595849939</v>
       </c>
       <c r="C5">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2064.5567993128898</v>
+        <v>822.54084312349005</v>
       </c>
       <c r="B6">
-        <v>50.944836950961083</v>
+        <v>31.717543020050101</v>
       </c>
       <c r="C6">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2313.6097206538161</v>
-      </c>
-      <c r="B7">
-        <v>78.882758851069198</v>
-      </c>
-      <c r="C7">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D7">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1751.2727479112109</v>
-      </c>
-      <c r="B8">
-        <v>30.337125316159671</v>
-      </c>
-      <c r="C8">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D8">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1807.6405501488191</v>
-      </c>
-      <c r="B9">
-        <v>81.170844672944085</v>
-      </c>
-      <c r="C9">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D9">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D10">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D11">
-        <v>60.105650490869102</v>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -711,21 +642,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,121 +667,87 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2235.0608096292499</v>
+        <v>1189.3122205446</v>
       </c>
       <c r="B2">
-        <v>82.411697567335395</v>
+        <v>43.120921526534502</v>
       </c>
       <c r="C2">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2286.602631603766</v>
+        <v>1458.4597272159999</v>
       </c>
       <c r="B3">
-        <v>20.79782512789242</v>
+        <v>43.141660201147403</v>
       </c>
       <c r="C3">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2202.6727893651828</v>
+        <v>1421.2603045677149</v>
       </c>
       <c r="B4">
-        <v>86.264993336264993</v>
+        <v>36.164400991200303</v>
       </c>
       <c r="C4">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1288.2442024905799</v>
+      </c>
+      <c r="B5">
+        <v>44.392171184152197</v>
+      </c>
       <c r="C5">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1498.6014268790741</v>
-      </c>
-      <c r="B7">
-        <v>86.578053806977891</v>
-      </c>
-      <c r="C7">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D7">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2124.803992075575</v>
-      </c>
-      <c r="B8">
-        <v>75.685366131352012</v>
-      </c>
-      <c r="C8">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D8">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D9">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D10">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2364.2302080110112</v>
-      </c>
-      <c r="B11">
-        <v>71.169443214178543</v>
-      </c>
-      <c r="C11">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D11">
-        <v>31.584521570396451</v>
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -862,21 +757,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,115 +782,81 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>817.13829976501995</v>
+      </c>
+      <c r="B4">
+        <v>42.196049241631997</v>
+      </c>
       <c r="C4">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1396.3008545263999</v>
+      </c>
+      <c r="B5">
+        <v>46.2948614815597</v>
+      </c>
       <c r="C5">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1166.9716115813301</v>
+      </c>
+      <c r="B6">
+        <v>44.755480306023898</v>
+      </c>
       <c r="C6">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1636.724142601106</v>
-      </c>
-      <c r="B7">
-        <v>74.706237498465825</v>
-      </c>
-      <c r="C7">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D7">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1856.253325164804</v>
-      </c>
-      <c r="B8">
-        <v>28.784701218813201</v>
-      </c>
-      <c r="C8">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D8">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1553.1402163976511</v>
-      </c>
-      <c r="B9">
-        <v>78.896007672166618</v>
-      </c>
-      <c r="C9">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D9">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1720.933044176013</v>
-      </c>
-      <c r="B10">
-        <v>86.258949883650303</v>
-      </c>
-      <c r="C10">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D10">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1710.3342121577321</v>
-      </c>
-      <c r="B11">
-        <v>59.695998324051232</v>
-      </c>
-      <c r="C11">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D11">
-        <v>93.483118303104746</v>
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1007,19 +866,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,145 +887,81 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2406.9820904912749</v>
+        <v>1124.6038875783699</v>
       </c>
       <c r="B2">
-        <v>13.00326328122966</v>
+        <v>39.249187146502003</v>
       </c>
       <c r="C2">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2282.1869654204852</v>
-      </c>
-      <c r="B3">
-        <v>10.224281599052301</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2358.0382788626698</v>
-      </c>
-      <c r="B4">
-        <v>60.297966215962639</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1627.4257721464289</v>
+        <v>1136.1056626460199</v>
       </c>
       <c r="B5">
-        <v>36.675692448951509</v>
+        <v>41.4908641575378</v>
       </c>
       <c r="C5">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2187.890571340226</v>
+        <v>1380.21041122055</v>
       </c>
       <c r="B6">
-        <v>56.350133347726683</v>
+        <v>37.855309411728499</v>
       </c>
       <c r="C6">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2039.630807734178</v>
-      </c>
-      <c r="B7">
-        <v>80.432851376383041</v>
-      </c>
-      <c r="C7">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D7">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1542.1250835720459</v>
-      </c>
-      <c r="B8">
-        <v>35.576530037413256</v>
-      </c>
-      <c r="C8">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D8">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1752.442978836071</v>
-      </c>
-      <c r="B9">
-        <v>10.472383989418111</v>
-      </c>
-      <c r="C9">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D9">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2269.6105547015732</v>
-      </c>
-      <c r="B10">
-        <v>96.767197463992531</v>
-      </c>
-      <c r="C10">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D10">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2132.8376747360771</v>
-      </c>
-      <c r="B11">
-        <v>94.054680552195606</v>
-      </c>
-      <c r="C11">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D11">
-        <v>14.021317001653131</v>
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
